--- a/biology/Histoire de la zoologie et de la botanique/Nikolaï_Zaroudny/Nikolaï_Zaroudny.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nikolaï_Zaroudny/Nikolaï_Zaroudny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Zaroudny</t>
+          <t>Nikolaï_Zaroudny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nikolaï Alexeïevitch Zaroudny (en russe : Николай Алексеевич Зарудный ; orthographié Sarudny ou Zaroudnoï[1] dans de vieux travaux) (1859 - mars 1919) est un explorateur et un zoologiste russe qui a étudié la faune, et particulièrement les oiseaux et les reptiles d'Asie centrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nikolaï Alexeïevitch Zaroudny (en russe : Николай Алексеевич Зарудный ; orthographié Sarudny ou Zaroudnoï dans de vieux travaux) (1859 - mars 1919) est un explorateur et un zoologiste russe qui a étudié la faune, et particulièrement les oiseaux et les reptiles d'Asie centrale.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Zaroudny</t>
+          <t>Nikolaï_Zaroudny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Griakovo, en actuelle Ukraine. Il rédige son premier livre d'ornithologie en 1896 et fait cinq expéditions dans la région caspienne à partir de 1884 à 1892.
 Entre 1895 et 1904, il effectua de nombreuses expéditions en Perse (Iran) où il récolta de nombreux échantillons de reptiles, amphibiens et poissons. Ces expéditions sont soutenues par la Société géographique de Russie et l'institut zoologique de Saint-Pétersbourg. Il a rassemblé près de 3 140 spécimens d'oiseaux et 50 000 d'insectes. Pour son travail la Société géographique de Russie lui a attribué la médaille de Prjevalski.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Zaroudny</t>
+          <t>Nikolaï_Zaroudny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Espèces éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moineau de Zarudny (Passer zarudnyi) Pleske, 1896</t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Zaroudny</t>
+          <t>Nikolaï_Zaroudny</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ses principales publications sont :
 (fr) Oiseaux de la Contrée Trans-Caspienne (Bulletin de la Société impériale des naturalistes de Moscou, 1885).
